--- a/data/name_list.xlsx
+++ b/data/name_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\py-encoder-src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder-src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E07B429-43D7-4809-889F-1817B27C0F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8566A558-F999-4A74-A8BE-A31AD8409CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-6225" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Machines" sheetId="1" r:id="rId1"/>
@@ -1147,9 +1147,6 @@
     <t>FES</t>
   </si>
   <si>
-    <t>Mooring Winch -Center</t>
-  </si>
-  <si>
     <t>MAC</t>
   </si>
   <si>
@@ -1247,6 +1244,9 @@
   </si>
   <si>
     <t>machinery</t>
+  </si>
+  <si>
+    <t>Mooring Winch - Center</t>
   </si>
 </sst>
 </file>
@@ -1633,7 +1633,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="G183" sqref="G183"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1643,7 +1645,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2179,7 +2181,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B68" t="s">
         <v>131</v>
@@ -3155,15 +3157,15 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>405</v>
+      </c>
+      <c r="B190" t="s">
         <v>372</v>
-      </c>
-      <c r="B190" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B191" t="s">
         <v>200</v>
@@ -3171,7 +3173,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B192" t="s">
         <v>206</v>
@@ -3179,23 +3181,23 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>375</v>
+      </c>
+      <c r="B193" t="s">
         <v>376</v>
-      </c>
-      <c r="B193" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>377</v>
+      </c>
+      <c r="B194" t="s">
         <v>378</v>
-      </c>
-      <c r="B194" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B195" t="s">
         <v>335</v>
@@ -3203,31 +3205,31 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>380</v>
+      </c>
+      <c r="B196" t="s">
         <v>381</v>
-      </c>
-      <c r="B196" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>382</v>
+      </c>
+      <c r="B197" t="s">
         <v>383</v>
-      </c>
-      <c r="B197" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>384</v>
+      </c>
+      <c r="B198" t="s">
         <v>385</v>
-      </c>
-      <c r="B198" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B199" t="s">
         <v>102</v>
@@ -3235,18 +3237,18 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>387</v>
+      </c>
+      <c r="B200" t="s">
         <v>388</v>
-      </c>
-      <c r="B200" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>389</v>
+      </c>
+      <c r="B201" t="s">
         <v>390</v>
-      </c>
-      <c r="B201" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -3254,15 +3256,15 @@
         <v>360</v>
       </c>
       <c r="B202" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>392</v>
+      </c>
+      <c r="B203" t="s">
         <v>393</v>
-      </c>
-      <c r="B203" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3270,7 +3272,7 @@
         <v>10</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3278,7 +3280,7 @@
         <v>109</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3286,7 +3288,7 @@
         <v>27</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3294,7 +3296,7 @@
         <v>292</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3302,7 +3304,7 @@
         <v>350</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -3310,7 +3312,7 @@
         <v>356</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -3318,7 +3320,7 @@
         <v>358</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -3334,38 +3336,38 @@
         <v>362</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B215" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A5 A7:A56 A58:A67 A151:A181 A184 A186:A203 A69 A71:A149" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A5 A7:A56 A58:A67 A151:A181 A184 A186:A189 A69 A71:A149 A191:A203" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/name_list.xlsx
+++ b/data/name_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder-src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8566A558-F999-4A74-A8BE-A31AD8409CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3684EBB3-C48F-4BD2-8010-A0C88A28D949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="405">
   <si>
     <t>code</t>
   </si>
@@ -626,9 +626,6 @@
   </si>
   <si>
     <t>AP</t>
-  </si>
-  <si>
-    <t>Multi gas Detector</t>
   </si>
   <si>
     <t>MGD</t>
@@ -1631,10 +1628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B215"/>
+  <dimension ref="A1:B214"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="G183" sqref="G183"/>
+      <selection activeCell="F187" sqref="F187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1645,7 +1642,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2181,7 +2178,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B68" t="s">
         <v>131</v>
@@ -2461,274 +2458,274 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B103" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B105" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B106" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B107" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B108" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B109" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B110" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B111" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B112" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B113" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B114" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B115" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B116" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B117" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B118" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B119" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B120" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B121" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B122" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B123" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B124" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B125" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B126" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B127" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B128" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B129" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B130" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B131" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B132" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B133" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B134" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B135" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>266</v>
+      </c>
+      <c r="B136" t="s">
         <v>265</v>
-      </c>
-      <c r="B136" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2736,420 +2733,420 @@
         <v>267</v>
       </c>
       <c r="B137" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B138" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B139" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B140" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B141" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B142" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B143" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B144" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B145" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B146" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B147" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B148" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B149" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B150" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B151" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B152" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B153" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B154" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B155" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B156" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B157" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B158" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B159" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B160" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B161" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B162" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B163" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B164" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B165" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B166" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B167" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B168" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B169" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B170" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B171" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B172" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B173" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B174" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B175" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B176" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B177" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B178" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B179" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B180" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B181" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B182" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B183" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B184" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B185" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B186" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B187" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B188" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="B189" t="s">
         <v>371</v>
@@ -3157,10 +3154,10 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="B190" t="s">
-        <v>372</v>
+        <v>199</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3168,7 +3165,7 @@
         <v>373</v>
       </c>
       <c r="B191" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -3176,23 +3173,23 @@
         <v>374</v>
       </c>
       <c r="B192" t="s">
-        <v>206</v>
+        <v>375</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B193" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B194" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3200,31 +3197,31 @@
         <v>379</v>
       </c>
       <c r="B195" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B196" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B197" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B198" t="s">
-        <v>385</v>
+        <v>102</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3232,20 +3229,20 @@
         <v>386</v>
       </c>
       <c r="B199" t="s">
-        <v>102</v>
+        <v>387</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B200" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="B201" t="s">
         <v>390</v>
@@ -3253,23 +3250,23 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="B202" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>392</v>
-      </c>
-      <c r="B203" t="s">
-        <v>393</v>
+      <c r="A203" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>395</v>
@@ -3277,7 +3274,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>396</v>
@@ -3285,7 +3282,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>27</v>
+        <v>291</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>397</v>
@@ -3293,7 +3290,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>292</v>
+        <v>349</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>398</v>
@@ -3301,7 +3298,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>399</v>
@@ -3309,7 +3306,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>400</v>
@@ -3317,57 +3314,49 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>401</v>
+        <v>359</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>394</v>
-      </c>
-      <c r="B215" t="s">
-        <v>394</v>
+      <c r="A214" t="s">
+        <v>393</v>
+      </c>
+      <c r="B214" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A5 A7:A56 A58:A67 A151:A181 A184 A186:A189 A69 A71:A149 A191:A203" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A5 A7:A56 A58:A67 A150:A180 A183 A185:A188 A69 A71:A102 A190:A202 A103:A148" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/name_list.xlsx
+++ b/data/name_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder-src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3684EBB3-C48F-4BD2-8010-A0C88A28D949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9275A1AF-7834-40F4-9C56-DB4A079846CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="404">
   <si>
     <t>code</t>
   </si>
@@ -641,9 +641,6 @@
   </si>
   <si>
     <t>RE</t>
-  </si>
-  <si>
-    <t>Life Saving Equipments</t>
   </si>
   <si>
     <t>LSA</t>
@@ -1628,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B214"/>
+  <dimension ref="A1:B213"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="F187" sqref="F187"/>
+      <selection activeCell="G186" sqref="G186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1642,7 +1639,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2178,7 +2175,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B68" t="s">
         <v>131</v>
@@ -2474,250 +2471,250 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B105" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B106" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B107" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B108" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B109" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B110" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B111" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B112" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B113" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B114" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B115" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B116" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B117" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B118" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B119" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B120" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B121" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B122" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B123" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B124" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B125" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B126" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B127" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B128" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B129" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B130" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B131" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B132" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B133" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B134" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>265</v>
+      </c>
+      <c r="B135" t="s">
         <v>264</v>
-      </c>
-      <c r="B135" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2725,420 +2722,420 @@
         <v>266</v>
       </c>
       <c r="B136" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B137" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B138" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B139" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B140" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B141" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B142" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B143" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B144" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B145" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B146" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B147" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B148" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B149" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B150" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B151" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B152" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B153" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B154" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B155" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B156" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B157" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B158" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B159" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B160" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B161" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B162" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B163" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B164" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B165" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B166" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B167" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B168" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B169" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B170" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B171" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B172" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B173" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B174" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B175" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B176" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B177" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B178" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B179" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B180" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B181" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B182" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B183" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B184" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B185" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B186" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B187" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="B188" t="s">
         <v>370</v>
@@ -3146,10 +3143,10 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B189" t="s">
-        <v>371</v>
+        <v>199</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,7 +3154,7 @@
         <v>372</v>
       </c>
       <c r="B190" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,23 +3162,23 @@
         <v>373</v>
       </c>
       <c r="B191" t="s">
-        <v>205</v>
+        <v>374</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B192" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B193" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -3189,31 +3186,31 @@
         <v>378</v>
       </c>
       <c r="B194" t="s">
-        <v>334</v>
+        <v>379</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B195" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B196" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B197" t="s">
-        <v>384</v>
+        <v>102</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -3221,20 +3218,20 @@
         <v>385</v>
       </c>
       <c r="B198" t="s">
-        <v>102</v>
+        <v>386</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B199" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="B200" t="s">
         <v>389</v>
@@ -3242,23 +3239,23 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="B201" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>391</v>
-      </c>
-      <c r="B202" t="s">
-        <v>392</v>
+      <c r="A202" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>394</v>
@@ -3266,7 +3263,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>395</v>
@@ -3274,7 +3271,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>27</v>
+        <v>290</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>396</v>
@@ -3282,7 +3279,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>397</v>
@@ -3290,7 +3287,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>398</v>
@@ -3298,7 +3295,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>399</v>
@@ -3306,57 +3303,49 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>400</v>
+        <v>358</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>393</v>
-      </c>
-      <c r="B214" t="s">
-        <v>393</v>
+      <c r="A213" t="s">
+        <v>392</v>
+      </c>
+      <c r="B213" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A5 A7:A56 A58:A67 A150:A180 A183 A185:A188 A69 A71:A102 A190:A202 A103:A148" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A5 A7:A56 A58:A67 A149:A179 A182 A184:A187 A69 A71:A102 A189:A201 A103:A104 A105:A147" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/name_list.xlsx
+++ b/data/name_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder-src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9275A1AF-7834-40F4-9C56-DB4A079846CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DBDCFB-4BC7-4042-8867-4C62147C159B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="405">
   <si>
     <t>code</t>
   </si>
@@ -1241,6 +1241,9 @@
   </si>
   <si>
     <t>Mooring Winch - Center</t>
+  </si>
+  <si>
+    <t>AVH</t>
   </si>
 </sst>
 </file>
@@ -1625,10 +1628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B213"/>
+  <dimension ref="A1:B217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="G186" sqref="G186"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="A216" sqref="A216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3334,10 +3337,42 @@
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="A213" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>392</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B217" t="s">
         <v>392</v>
       </c>
     </row>
@@ -3345,7 +3380,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A5 A7:A56 A58:A67 A149:A179 A182 A184:A187 A69 A71:A102 A189:A201 A103:A104 A105:A147" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A5 A7:A56 A58:A67 A149:A179 A182 A184:A187 A69 A71:A102 A189:A201 A105:A124 A126:A147" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/name_list.xlsx
+++ b/data/name_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder-src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DBDCFB-4BC7-4042-8867-4C62147C159B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B397393-520B-4DE8-A54A-BD7F3B3D2EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1630,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="A216" sqref="A216"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3250,7 +3250,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>393</v>

--- a/data/name_list.xlsx
+++ b/data/name_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder-src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B397393-520B-4DE8-A54A-BD7F3B3D2EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1010E9-BCC4-442D-A3AE-BC2D35C65C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="406">
   <si>
     <t>code</t>
   </si>
@@ -1244,6 +1244,9 @@
   </si>
   <si>
     <t>AVH</t>
+  </si>
+  <si>
+    <t>Ballast Water Management System</t>
   </si>
 </sst>
 </file>
@@ -1630,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="I195" sqref="I195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3090,7 +3093,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="B182" t="s">
         <v>359</v>
@@ -3234,7 +3237,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="B200" t="s">
         <v>389</v>
@@ -3306,7 +3309,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>358</v>
@@ -3380,7 +3383,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A5 A7:A56 A58:A67 A149:A179 A182 A184:A187 A69 A71:A102 A189:A201 A105:A124 A126:A147" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A5 A7:A56 A58:A67 A149:A179 A184:A187 A69 A71:A102 A189:A199 A105:A124 A126:A147 A201" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/name_list.xlsx
+++ b/data/name_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder-src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1010E9-BCC4-442D-A3AE-BC2D35C65C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A10BE2-488C-40B6-A6AE-9FB9DB6AFA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="405">
   <si>
     <t>code</t>
   </si>
@@ -824,9 +824,6 @@
   </si>
   <si>
     <t>NVCH</t>
-  </si>
-  <si>
-    <t>Ventilation System Accommodation</t>
   </si>
   <si>
     <t>Ventilation System Engine Room</t>
@@ -1631,10 +1628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B217"/>
+  <dimension ref="A1:B216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="I195" sqref="I195"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1645,7 +1642,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2181,7 +2178,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B68" t="s">
         <v>131</v>
@@ -2709,450 +2706,450 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B134" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B135" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B136" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B137" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B138" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B139" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B140" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B141" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B142" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B143" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B144" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B145" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B146" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B147" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B148" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B149" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B150" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B151" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B152" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B153" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B154" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B155" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B156" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B157" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B158" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B159" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B160" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B161" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B162" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B163" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B164" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B165" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B166" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B167" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B168" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B169" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B170" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B171" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B172" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B173" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B174" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B175" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B176" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B177" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B178" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B179" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="B180" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B181" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>405</v>
+        <v>361</v>
       </c>
       <c r="B182" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B183" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B184" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B185" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="B186" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B187" t="s">
-        <v>369</v>
+        <v>199</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="B188" t="s">
-        <v>370</v>
+        <v>204</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>371</v>
+        <v>263</v>
       </c>
       <c r="B189" t="s">
-        <v>199</v>
+        <v>264</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3160,23 +3157,23 @@
         <v>372</v>
       </c>
       <c r="B190" t="s">
-        <v>204</v>
+        <v>373</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B191" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B192" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -3184,31 +3181,31 @@
         <v>377</v>
       </c>
       <c r="B193" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B194" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B195" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B196" t="s">
-        <v>383</v>
+        <v>102</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3216,20 +3213,20 @@
         <v>384</v>
       </c>
       <c r="B197" t="s">
-        <v>102</v>
+        <v>385</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B198" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="B199" t="s">
         <v>388</v>
@@ -3237,23 +3234,23 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="B200" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>390</v>
-      </c>
-      <c r="B201" t="s">
-        <v>391</v>
+      <c r="A201" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>393</v>
@@ -3261,7 +3258,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>394</v>
@@ -3269,7 +3266,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>27</v>
+        <v>289</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>395</v>
@@ -3277,7 +3274,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>290</v>
+        <v>347</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>396</v>
@@ -3285,7 +3282,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>397</v>
@@ -3293,7 +3290,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>398</v>
@@ -3301,89 +3298,81 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>399</v>
+        <v>357</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>401</v>
+        <v>245</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>404</v>
+        <v>279</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>280</v>
+        <v>200</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>392</v>
-      </c>
-      <c r="B217" t="s">
-        <v>392</v>
+      <c r="A216" t="s">
+        <v>391</v>
+      </c>
+      <c r="B216" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A5 A7:A56 A58:A67 A149:A179 A184:A187 A69 A71:A102 A189:A199 A105:A124 A126:A147 A201" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A5 A7:A56 A58:A67 A147:A177 A182:A185 A69 A71:A102 A190:A198 A105:A124 A200 A126:A133 A187:A188 A134:A145" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/name_list.xlsx
+++ b/data/name_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder-src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A10BE2-488C-40B6-A6AE-9FB9DB6AFA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528A113F-A4EC-48B7-A866-7FC01FF621B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1147,9 +1147,6 @@
     <t>Life Saving Apparatus</t>
   </si>
   <si>
-    <t>Ventilation System Accomodation</t>
-  </si>
-  <si>
     <t>NVSA</t>
   </si>
   <si>
@@ -1244,6 +1241,9 @@
   </si>
   <si>
     <t>Ballast Water Management System</t>
+  </si>
+  <si>
+    <t>Ventilation System Accommodation</t>
   </si>
 </sst>
 </file>
@@ -1631,7 +1631,7 @@
   <dimension ref="A1:B216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="C183" sqref="C183"/>
+      <selection activeCell="G188" sqref="G188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1642,7 +1642,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B68" t="s">
         <v>131</v>
@@ -3074,7 +3074,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B180" t="s">
         <v>358</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B186" t="s">
         <v>369</v>
@@ -3154,23 +3154,23 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>404</v>
+      </c>
+      <c r="B190" t="s">
         <v>372</v>
-      </c>
-      <c r="B190" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>373</v>
+      </c>
+      <c r="B191" t="s">
         <v>374</v>
-      </c>
-      <c r="B191" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B192" t="s">
         <v>332</v>
@@ -3178,31 +3178,31 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>376</v>
+      </c>
+      <c r="B193" t="s">
         <v>377</v>
-      </c>
-      <c r="B193" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>378</v>
+      </c>
+      <c r="B194" t="s">
         <v>379</v>
-      </c>
-      <c r="B194" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>380</v>
+      </c>
+      <c r="B195" t="s">
         <v>381</v>
-      </c>
-      <c r="B195" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B196" t="s">
         <v>102</v>
@@ -3210,34 +3210,34 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>383</v>
+      </c>
+      <c r="B197" t="s">
         <v>384</v>
-      </c>
-      <c r="B197" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>385</v>
+      </c>
+      <c r="B198" t="s">
         <v>386</v>
-      </c>
-      <c r="B198" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B199" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>388</v>
+      </c>
+      <c r="B200" t="s">
         <v>389</v>
-      </c>
-      <c r="B200" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -3245,7 +3245,7 @@
         <v>9</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -3253,7 +3253,7 @@
         <v>109</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3261,7 +3261,7 @@
         <v>27</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3269,7 +3269,7 @@
         <v>289</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3277,7 +3277,7 @@
         <v>347</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3285,7 +3285,7 @@
         <v>353</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3293,12 +3293,12 @@
         <v>355</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>357</v>
@@ -3309,23 +3309,23 @@
         <v>359</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -3333,7 +3333,7 @@
         <v>245</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3362,17 +3362,17 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B216" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A5 A7:A56 A58:A67 A147:A177 A182:A185 A69 A71:A102 A190:A198 A105:A124 A200 A126:A133 A187:A188 A134:A145" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A5 A7:A56 A58:A67 A147:A177 A182:A185 A69 A71:A102 A191:A198 A105:A124 A200 A126:A133 A187:A188 A134:A145" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/name_list.xlsx
+++ b/data/name_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder-src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528A113F-A4EC-48B7-A866-7FC01FF621B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D681A165-6FCB-4CCF-AB1B-48EE8434157F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="404">
   <si>
     <t>code</t>
   </si>
@@ -1193,9 +1193,6 @@
   </si>
   <si>
     <t>BWM</t>
-  </si>
-  <si>
-    <t>Rescueboat</t>
   </si>
   <si>
     <t>RBT</t>
@@ -1630,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="G188" sqref="G188"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="F191" sqref="F191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1642,7 +1639,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2178,7 +2175,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B68" t="s">
         <v>131</v>
@@ -3074,7 +3071,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B180" t="s">
         <v>358</v>
@@ -3122,7 +3119,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B186" t="s">
         <v>369</v>
@@ -3154,7 +3151,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B190" t="s">
         <v>372</v>
@@ -3226,7 +3223,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B199" t="s">
         <v>387</v>
@@ -3234,10 +3231,10 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>287</v>
+      </c>
+      <c r="B200" t="s">
         <v>388</v>
-      </c>
-      <c r="B200" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -3245,7 +3242,7 @@
         <v>9</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -3253,7 +3250,7 @@
         <v>109</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3261,7 +3258,7 @@
         <v>27</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3269,7 +3266,7 @@
         <v>289</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3277,7 +3274,7 @@
         <v>347</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3285,7 +3282,7 @@
         <v>353</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3293,12 +3290,12 @@
         <v>355</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>357</v>
@@ -3309,7 +3306,7 @@
         <v>359</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -3322,10 +3319,10 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -3333,7 +3330,7 @@
         <v>245</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3362,17 +3359,17 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B216" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A5 A7:A56 A58:A67 A147:A177 A182:A185 A69 A71:A102 A191:A198 A105:A124 A200 A126:A133 A187:A188 A134:A145" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A5 A7:A56 A58:A67 A147:A177 A182:A185 A69 A71:A102 A191:A198 A105:A124 A126:A133 A187:A188 A134:A145" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/name_list.xlsx
+++ b/data/name_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\py-encoder-src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D681A165-6FCB-4CCF-AB1B-48EE8434157F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED15D1C-03BB-4C7C-82E6-40D34FBE9708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Machines" sheetId="1" r:id="rId1"/>
@@ -1627,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="F191" sqref="F191"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="G181" sqref="G181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/data/name_list.xlsx
+++ b/data/name_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\py-encoder-src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED15D1C-03BB-4C7C-82E6-40D34FBE9708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD366A22-07D5-4904-98CD-D7570F5A944F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-6225" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Machines" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="403">
   <si>
     <t>code</t>
   </si>
@@ -1196,9 +1196,6 @@
   </si>
   <si>
     <t>RBT</t>
-  </si>
-  <si>
-    <t>END</t>
   </si>
   <si>
     <t>GEN03</t>
@@ -1247,7 +1244,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1258,6 +1255,20 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1283,9 +1294,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1627,8 +1640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="G181" sqref="G181"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="A225" sqref="A225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1638,10 +1651,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2175,7 +2188,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B68" t="s">
         <v>131</v>
@@ -3071,7 +3084,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B180" t="s">
         <v>358</v>
@@ -3119,7 +3132,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B186" t="s">
         <v>369</v>
@@ -3151,7 +3164,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B190" t="s">
         <v>372</v>
@@ -3223,7 +3236,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B199" t="s">
         <v>387</v>
@@ -3242,7 +3255,7 @@
         <v>9</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -3250,7 +3263,7 @@
         <v>109</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3258,7 +3271,7 @@
         <v>27</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3266,7 +3279,7 @@
         <v>289</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3274,7 +3287,7 @@
         <v>347</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3282,7 +3295,7 @@
         <v>353</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3290,12 +3303,12 @@
         <v>355</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>357</v>
@@ -3306,7 +3319,7 @@
         <v>359</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -3319,10 +3332,10 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -3330,7 +3343,7 @@
         <v>245</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3358,12 +3371,8 @@
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>389</v>
-      </c>
-      <c r="B216" t="s">
-        <v>389</v>
-      </c>
+      <c r="A216" s="3"/>
+      <c r="B216" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
